--- a/START Backlog.xlsx
+++ b/START Backlog.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newuniversity-my.sharepoint.com/personal/hove1500_student_nhl_nl/Documents/School/Programmeren Periode 1/PROJECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\OneDrive - Noordelijke Hogeschool Leeuwarden\School\Programmeren Periode 1\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="6864009637B3507E0E3B6B80316EF76434E9E8A8" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{27964CD8-D711-481A-9A57-FDC96E8C5A9A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{A33332AB-DDAF-4915-B163-B1CAE4C250AF}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -79,10 +80,22 @@
     <t>Na afloop van het spel -alle 4x4 kaartjes omgedraaid- zijn de namen+scores zichtbaar met wie er gewonnen heeft</t>
   </si>
   <si>
+    <t>NAVRAGEN -&gt;</t>
+  </si>
+  <si>
+    <t>Save bestand van spel aanmaken, met info; Huidige status van 16Kaarten, namen+scores van spelers en wiens beurt het is</t>
+  </si>
+  <si>
+    <t>Terugladen van "bevroren" savebestand van spel, waarbij de status van kaarten en namen+scores+beurt van de spelers worden teruggeladen naar het moment van Save bestand</t>
+  </si>
+  <si>
+    <t>Mogelijkheid</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -93,7 +106,7 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -103,7 +116,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -112,23 +125,40 @@
     </r>
   </si>
   <si>
-    <t>NAVRAGEN -&gt;</t>
-  </si>
-  <si>
-    <t>Save bestand van spel aanmaken, met info; Huidige status van 16Kaarten, namen+scores van spelers en wiens beurt het is</t>
-  </si>
-  <si>
-    <t>Terugladen van "bevroren" savebestand van spel, waarbij de status van kaarten en namen+scores+beurt van de spelers worden teruggeladen naar het moment van Save bestand</t>
-  </si>
-  <si>
-    <t>Mogelijkheid</t>
+    <t>Spel speelt volgens standaard spelregels -&gt; Spelregels bij startmenu te zien</t>
+  </si>
+  <si>
+    <t>Spel loopt op tijd (stopwatch? Is zichtbaar) -hierop Is score gebaseerd-?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,25 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,19 +202,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -520,13 +535,14 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="53.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -535,89 +551,96 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+      <c r="B20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
